--- a/data/trans_orig/P19C05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C05-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>70717</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>55681</v>
+        <v>56673</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>85972</v>
+        <v>88390</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1479940558284396</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1165264910850387</v>
+        <v>0.1186035875010006</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1799184941365876</v>
+        <v>0.1849800042833862</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>98</v>
@@ -765,19 +765,19 @@
         <v>95592</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>78673</v>
+        <v>79603</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>113200</v>
+        <v>113669</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1776466510060027</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1462040801846066</v>
+        <v>0.1479326357066821</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2103675390241614</v>
+        <v>0.2112389103762735</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>171</v>
@@ -786,19 +786,19 @@
         <v>166309</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>144597</v>
+        <v>143684</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>189325</v>
+        <v>189573</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1636998606037064</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1423285784045779</v>
+        <v>0.1414290554703733</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1863544283276215</v>
+        <v>0.1865983581770781</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>407120</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>391865</v>
+        <v>389447</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>422156</v>
+        <v>421164</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8520059441715604</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8200815058634124</v>
+        <v>0.8150199957166138</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8834735089149613</v>
+        <v>0.8813964124989995</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>448</v>
@@ -836,19 +836,19 @@
         <v>442512</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>424904</v>
+        <v>424435</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>459431</v>
+        <v>458501</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8223533489939974</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7896324609758386</v>
+        <v>0.7887610896237265</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8537959198153934</v>
+        <v>0.8520673642933179</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>845</v>
@@ -857,19 +857,19 @@
         <v>849632</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>826616</v>
+        <v>826368</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>871344</v>
+        <v>872257</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8363001393962937</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8136455716723781</v>
+        <v>0.8134016418229216</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.857671421595422</v>
+        <v>0.8585709445296266</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>98404</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>80056</v>
+        <v>81170</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>118166</v>
+        <v>119013</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1362691761985888</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1108613219613878</v>
+        <v>0.1124045048430659</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1636356883473133</v>
+        <v>0.1648091153603709</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>117</v>
@@ -982,19 +982,19 @@
         <v>123555</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>104908</v>
+        <v>102679</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>146152</v>
+        <v>144407</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1536321078007546</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.130445598328214</v>
+        <v>0.1276744918793291</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1817303644713704</v>
+        <v>0.1795600562486548</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>212</v>
@@ -1003,19 +1003,19 @@
         <v>221959</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>196294</v>
+        <v>192472</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>249828</v>
+        <v>252231</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1454175943111908</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1286034211416881</v>
+        <v>0.1260989124065552</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1636762671902246</v>
+        <v>0.1652509790311829</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>623724</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>603962</v>
+        <v>603115</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>642072</v>
+        <v>640958</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8637308238014112</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8363643116526865</v>
+        <v>0.8351908846396289</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.889138678038612</v>
+        <v>0.8875954951569337</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>639</v>
@@ -1053,19 +1053,19 @@
         <v>680671</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>658074</v>
+        <v>659819</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>699318</v>
+        <v>701547</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8463678921992454</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8182696355286295</v>
+        <v>0.8204399437513452</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.869554401671786</v>
+        <v>0.872325508120671</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1212</v>
@@ -1074,19 +1074,19 @@
         <v>1304395</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1276526</v>
+        <v>1274123</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1330060</v>
+        <v>1333882</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8545824056888093</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8363237328097753</v>
+        <v>0.8347490209688171</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8713965788583119</v>
+        <v>0.8739010875934449</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>79801</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>63270</v>
+        <v>63915</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>99038</v>
+        <v>97398</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1463992666542566</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1160728009392718</v>
+        <v>0.1172556479298623</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1816906515938719</v>
+        <v>0.1786823641699848</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>99</v>
@@ -1199,19 +1199,19 @@
         <v>97391</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>81025</v>
+        <v>81098</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>113953</v>
+        <v>118530</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1665913510538724</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1385974594396986</v>
+        <v>0.1387214411777759</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.194921099844346</v>
+        <v>0.2027514567355439</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>174</v>
@@ -1220,19 +1220,19 @@
         <v>177191</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>154011</v>
+        <v>152443</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>205100</v>
+        <v>201903</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1568484958934311</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1363289362869308</v>
+        <v>0.1349416288985557</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1815529506442181</v>
+        <v>0.1787232265557071</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>465288</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>446051</v>
+        <v>447691</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>481819</v>
+        <v>481174</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8536007333457434</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.818309348406128</v>
+        <v>0.8213176358300153</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8839271990607281</v>
+        <v>0.8827443520701377</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>497</v>
@@ -1270,19 +1270,19 @@
         <v>487218</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>470656</v>
+        <v>466079</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>503584</v>
+        <v>503511</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8334086489461275</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.805078900155654</v>
+        <v>0.797248543264456</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8614025405603013</v>
+        <v>0.8612785588222241</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>937</v>
@@ -1291,19 +1291,19 @@
         <v>952507</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>924598</v>
+        <v>927795</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>975687</v>
+        <v>977255</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8431515041065689</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8184470493557817</v>
+        <v>0.8212767734442927</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8636710637130691</v>
+        <v>0.8650583711014443</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>84730</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>69037</v>
+        <v>70355</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>102776</v>
+        <v>103631</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1193907329464636</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09727748527935126</v>
+        <v>0.09913578778836214</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1448181050188658</v>
+        <v>0.1460237090530061</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>119</v>
@@ -1416,19 +1416,19 @@
         <v>125683</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>106813</v>
+        <v>107044</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>149548</v>
+        <v>147938</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1544018937078607</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1312204083521369</v>
+        <v>0.1315037152467622</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1837209241127885</v>
+        <v>0.1817430553722947</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>211</v>
@@ -1437,19 +1437,19 @@
         <v>210413</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>185930</v>
+        <v>186028</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>241180</v>
+        <v>239234</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1380947355178945</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1220261570809878</v>
+        <v>0.1220910061139453</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1582869356740896</v>
+        <v>0.1570097564862609</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>624958</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>606912</v>
+        <v>606057</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>640651</v>
+        <v>639333</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8806092670535364</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8551818949811337</v>
+        <v>0.8539762909469939</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9027225147206488</v>
+        <v>0.900864212211638</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>662</v>
@@ -1487,19 +1487,19 @@
         <v>688315</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>664450</v>
+        <v>666060</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>707185</v>
+        <v>706954</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8455981062921393</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8162790758872117</v>
+        <v>0.8182569446277054</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8687795916478631</v>
+        <v>0.868496284753238</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1324</v>
@@ -1508,19 +1508,19 @@
         <v>1313273</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1282506</v>
+        <v>1284452</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1337756</v>
+        <v>1337658</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8619052644821055</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8417130643259104</v>
+        <v>0.8429902435137391</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8779738429190121</v>
+        <v>0.8779089938860547</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>333652</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>300049</v>
+        <v>302716</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>369735</v>
+        <v>374427</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1359212612573793</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1222325170665539</v>
+        <v>0.1233189624332062</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1506208364361623</v>
+        <v>0.1525321313652471</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>433</v>
@@ -1633,19 +1633,19 @@
         <v>442221</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>406194</v>
+        <v>403723</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>482841</v>
+        <v>478595</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1613393267078163</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1481952969562092</v>
+        <v>0.1472937971892109</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1761592366774703</v>
+        <v>0.1746100608037576</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>768</v>
@@ -1654,19 +1654,19 @@
         <v>775873</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>723385</v>
+        <v>721732</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>829081</v>
+        <v>826653</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1493303500795586</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1392282296822801</v>
+        <v>0.1389100731941768</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1595712881084231</v>
+        <v>0.1591039172566758</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2121090</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2085007</v>
+        <v>2080315</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2154693</v>
+        <v>2152026</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8640787387426208</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8493791635638377</v>
+        <v>0.8474678686347529</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.877767482933446</v>
+        <v>0.8766810375667938</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2246</v>
@@ -1704,19 +1704,19 @@
         <v>2298716</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2258096</v>
+        <v>2262342</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2334743</v>
+        <v>2337214</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8386606732921836</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8238407633225295</v>
+        <v>0.8253899391962424</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8518047030437905</v>
+        <v>0.852706202810789</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4318</v>
@@ -1725,19 +1725,19 @@
         <v>4419806</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4366598</v>
+        <v>4369026</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4472294</v>
+        <v>4473947</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8506696499204414</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.840428711891577</v>
+        <v>0.8408960827433242</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8607717703177199</v>
+        <v>0.8610899268058231</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>103128</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>86199</v>
+        <v>82748</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>123210</v>
+        <v>122629</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1701915355484809</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1422545077908822</v>
+        <v>0.1365583055446469</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2033324773047757</v>
+        <v>0.2023736947818711</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>116</v>
@@ -2090,19 +2090,19 @@
         <v>125864</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>105486</v>
+        <v>107488</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>146650</v>
+        <v>147531</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1979613389270409</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1659101502727672</v>
+        <v>0.1690593785622566</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.23065456862189</v>
+        <v>0.2320395491676978</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>211</v>
@@ -2111,19 +2111,19 @@
         <v>228992</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>203473</v>
+        <v>200418</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>257793</v>
+        <v>259818</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1844102127489692</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1638592395711023</v>
+        <v>0.1613990973206325</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2076039617490163</v>
+        <v>0.2092353353588854</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>502823</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>482741</v>
+        <v>483322</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>519752</v>
+        <v>523203</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8298084644515191</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7966675226952242</v>
+        <v>0.7976263052181289</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8577454922091178</v>
+        <v>0.8634416944553529</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>476</v>
@@ -2161,19 +2161,19 @@
         <v>509937</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>489151</v>
+        <v>488270</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>530315</v>
+        <v>528313</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8020386610729591</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7693454313781098</v>
+        <v>0.7679604508323022</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8340898497272327</v>
+        <v>0.8309406214377434</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>962</v>
@@ -2182,19 +2182,19 @@
         <v>1012760</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>983959</v>
+        <v>981934</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1038279</v>
+        <v>1041334</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8155897872510308</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7923960382509837</v>
+        <v>0.7907646646411146</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8361407604288973</v>
+        <v>0.8386009026793674</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>120450</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>101266</v>
+        <v>100242</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>144791</v>
+        <v>142535</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1389281440670094</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1168008935773122</v>
+        <v>0.1156200547276848</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1670025632839563</v>
+        <v>0.1644011415729984</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>153</v>
@@ -2307,19 +2307,19 @@
         <v>166696</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>146489</v>
+        <v>144992</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>192040</v>
+        <v>191283</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.185460461794457</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1629786175644266</v>
+        <v>0.1613131525616356</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2136574234726921</v>
+        <v>0.2128146328468686</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>260</v>
@@ -2328,19 +2328,19 @@
         <v>287147</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>257251</v>
+        <v>256349</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>320020</v>
+        <v>320682</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1626136160950378</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.145683626155077</v>
+        <v>0.1451728030030124</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1812298814304746</v>
+        <v>0.1816051212984624</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>746548</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>722207</v>
+        <v>724463</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>765732</v>
+        <v>766756</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8610718559329906</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8329974367160439</v>
+        <v>0.8355988584270015</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8831991064226878</v>
+        <v>0.8843799452723151</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>668</v>
@@ -2378,19 +2378,19 @@
         <v>732127</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>706783</v>
+        <v>707540</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>752334</v>
+        <v>753831</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.814539538205543</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.786342576527308</v>
+        <v>0.7871853671531314</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8370213824355734</v>
+        <v>0.8386868474383643</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1360</v>
@@ -2399,19 +2399,19 @@
         <v>1478674</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1445801</v>
+        <v>1445139</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1508570</v>
+        <v>1509472</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8373863839049622</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8187701185695254</v>
+        <v>0.8183948787015376</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.854316373844923</v>
+        <v>0.8548271969969876</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>84512</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>66211</v>
+        <v>66688</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>104777</v>
+        <v>104388</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1328740361336833</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1041007002292964</v>
+        <v>0.1048499869864095</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1647351654923959</v>
+        <v>0.1641228597064366</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>103</v>
@@ -2524,19 +2524,19 @@
         <v>117711</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>96687</v>
+        <v>96678</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>139323</v>
+        <v>138862</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1734874726615082</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1425018552854059</v>
+        <v>0.1424889668062686</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2053406404011656</v>
+        <v>0.2046613877568394</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>174</v>
@@ -2545,19 +2545,19 @@
         <v>202223</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>176712</v>
+        <v>175659</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>231250</v>
+        <v>230495</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1538367285487014</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1344297820899311</v>
+        <v>0.1336285817827592</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.175918545961413</v>
+        <v>0.1753439896460852</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>551521</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>531256</v>
+        <v>531645</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>569822</v>
+        <v>569345</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8671259638663167</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.835264834507604</v>
+        <v>0.8358771402935634</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8958992997707038</v>
+        <v>0.8951500130135905</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>512</v>
@@ -2595,19 +2595,19 @@
         <v>560786</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>539174</v>
+        <v>539635</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>581810</v>
+        <v>581819</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8265125273384918</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7946593595988346</v>
+        <v>0.7953386122431605</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8574981447145941</v>
+        <v>0.8575110331937315</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1023</v>
@@ -2616,19 +2616,19 @@
         <v>1112306</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1083279</v>
+        <v>1084034</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1137817</v>
+        <v>1138870</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8461632714512987</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8240814540385869</v>
+        <v>0.8246560103539149</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8655702179100689</v>
+        <v>0.8663714182172408</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>129056</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>106955</v>
+        <v>108868</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>150665</v>
+        <v>151791</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1601834565214993</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.13275177743876</v>
+        <v>0.1351262382273798</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1870048291037288</v>
+        <v>0.1884022743499202</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>155</v>
@@ -2741,19 +2741,19 @@
         <v>163427</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>141301</v>
+        <v>141371</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>188708</v>
+        <v>185081</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1751252334622741</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1514157552266611</v>
+        <v>0.1514907106466202</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2022158722582622</v>
+        <v>0.1983289189355488</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>276</v>
@@ -2762,19 +2762,19 @@
         <v>292483</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>261405</v>
+        <v>262202</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>328187</v>
+        <v>324512</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.168202239864154</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1503295185460222</v>
+        <v>0.1507881680512298</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1887348263832669</v>
+        <v>0.1866217671399444</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>676620</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>655011</v>
+        <v>653885</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>698721</v>
+        <v>696808</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8398165434785007</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.812995170896271</v>
+        <v>0.8115977256500799</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8672482225612398</v>
+        <v>0.8648737617726202</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>732</v>
@@ -2812,19 +2812,19 @@
         <v>769774</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>744493</v>
+        <v>748120</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>791900</v>
+        <v>791830</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.824874766537726</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7977841277417381</v>
+        <v>0.8016710810644517</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8485842447733392</v>
+        <v>0.8485092893533798</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1385</v>
@@ -2833,19 +2833,19 @@
         <v>1446394</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1410690</v>
+        <v>1414365</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1477472</v>
+        <v>1476675</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8317977601358461</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8112651736167331</v>
+        <v>0.8133782328600557</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8496704814539782</v>
+        <v>0.8492118319487703</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>437147</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>395485</v>
+        <v>398654</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>476803</v>
+        <v>482068</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1499820557806096</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1356881827708394</v>
+        <v>0.1367755886967627</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1635878062444834</v>
+        <v>0.1653941477088716</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>527</v>
@@ -2958,19 +2958,19 @@
         <v>573698</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>530837</v>
+        <v>529623</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>616885</v>
+        <v>614338</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1823392284034309</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1687165810683336</v>
+        <v>0.1683309873249518</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.196065453304522</v>
+        <v>0.1952558437214867</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>921</v>
@@ -2979,19 +2979,19 @@
         <v>1010844</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>955037</v>
+        <v>955097</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1070311</v>
+        <v>1074787</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1667790201167212</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1575713248318974</v>
+        <v>0.1575813024857926</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1765904805406887</v>
+        <v>0.1773289951869211</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2477512</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2437856</v>
+        <v>2432591</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2519174</v>
+        <v>2516005</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8500179442193904</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8364121937555166</v>
+        <v>0.8346058522911284</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8643118172291605</v>
+        <v>0.8632244113032372</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2388</v>
@@ -3029,19 +3029,19 @@
         <v>2572623</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2529436</v>
+        <v>2531983</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2615484</v>
+        <v>2616698</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.817660771596569</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8039345466954779</v>
+        <v>0.8047441562785131</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8312834189316664</v>
+        <v>0.8316690126750482</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4730</v>
@@ -3050,19 +3050,19 @@
         <v>5050136</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4990669</v>
+        <v>4986193</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5105943</v>
+        <v>5105883</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8332209798832788</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8234095194593113</v>
+        <v>0.822671004813079</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8424286751681028</v>
+        <v>0.8424186975142075</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>54333</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40691</v>
+        <v>42158</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>69887</v>
+        <v>70319</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1034924577115141</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.077506814903783</v>
+        <v>0.08030153660439587</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1331191032944169</v>
+        <v>0.1339428508340587</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>62</v>
@@ -3415,19 +3415,19 @@
         <v>64327</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>50712</v>
+        <v>50146</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>81427</v>
+        <v>80375</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1181683979064262</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09315754855783186</v>
+        <v>0.0921190282414205</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1495817834839372</v>
+        <v>0.1476504372310906</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>115</v>
@@ -3436,19 +3436,19 @@
         <v>118659</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>99158</v>
+        <v>98954</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>140342</v>
+        <v>141227</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1109633440861696</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09272668162731976</v>
+        <v>0.09253584045011362</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1312400407760319</v>
+        <v>0.1320676844847859</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>470660</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>455106</v>
+        <v>454674</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>484302</v>
+        <v>482835</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8965075422884859</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8668808967055831</v>
+        <v>0.8660571491659415</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.922493185096217</v>
+        <v>0.9196984633956042</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>482</v>
@@ -3486,19 +3486,19 @@
         <v>480036</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>462936</v>
+        <v>463988</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>493651</v>
+        <v>494217</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8818316020935737</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8504182165160623</v>
+        <v>0.8523495627689095</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.906842451442168</v>
+        <v>0.9078809717585795</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>936</v>
@@ -3507,19 +3507,19 @@
         <v>950697</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>929014</v>
+        <v>928129</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>970198</v>
+        <v>970402</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8890366559138304</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.868759959223968</v>
+        <v>0.8679323155152141</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9072733183726802</v>
+        <v>0.9074641595498864</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>95579</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>77391</v>
+        <v>78587</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>116352</v>
+        <v>117699</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1170814731962104</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09480145703815493</v>
+        <v>0.09626670954379546</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1425278340274322</v>
+        <v>0.14417794044828</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>90</v>
@@ -3632,19 +3632,19 @@
         <v>103257</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>83114</v>
+        <v>83483</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>123517</v>
+        <v>123216</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.119183048496489</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09593381854654046</v>
+        <v>0.09635920890870989</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1425681522544974</v>
+        <v>0.1422202580014839</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>180</v>
@@ -3653,19 +3653,19 @@
         <v>198836</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>171117</v>
+        <v>173481</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>228114</v>
+        <v>231637</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1181635009976211</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1016906561273212</v>
+        <v>0.1030955863385371</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1355630360532109</v>
+        <v>0.1376564647416106</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>720767</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>699994</v>
+        <v>698647</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>738955</v>
+        <v>737759</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8829185268037897</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8574721659725677</v>
+        <v>0.8558220595517199</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9051985429618449</v>
+        <v>0.9037332904562042</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>728</v>
@@ -3703,19 +3703,19 @@
         <v>763116</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>742856</v>
+        <v>743157</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>783259</v>
+        <v>782890</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.880816951503511</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8574318477455026</v>
+        <v>0.8577797419985159</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9040661814534595</v>
+        <v>0.90364079109129</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1392</v>
@@ -3724,19 +3724,19 @@
         <v>1483883</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1454605</v>
+        <v>1451082</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1511602</v>
+        <v>1509238</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8818364990023789</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.864436963946789</v>
+        <v>0.8623435352583886</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8983093438726788</v>
+        <v>0.8969044136614627</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>44486</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32361</v>
+        <v>32587</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60014</v>
+        <v>59928</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08083060112617574</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05879893007195244</v>
+        <v>0.05920981454012783</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.10904558121359</v>
+        <v>0.1088889792511594</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -3849,19 +3849,19 @@
         <v>60995</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46397</v>
+        <v>46601</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78197</v>
+        <v>77872</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1052121002155935</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08003015829417018</v>
+        <v>0.08038296308170188</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1348837793176972</v>
+        <v>0.1343233890613039</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>93</v>
@@ -3870,19 +3870,19 @@
         <v>105481</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>86091</v>
+        <v>85325</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>126724</v>
+        <v>126637</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09333825972784413</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07617986931423253</v>
+        <v>0.07550203973577915</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1121355080745993</v>
+        <v>0.1120581579689365</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>505874</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>490346</v>
+        <v>490432</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>517999</v>
+        <v>517773</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9191693988738242</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8909544187864101</v>
+        <v>0.8911110207488401</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9412010699280476</v>
+        <v>0.9407901854598717</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>499</v>
@@ -3920,19 +3920,19 @@
         <v>518743</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>501541</v>
+        <v>501866</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>533341</v>
+        <v>533137</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8947878997844064</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8651162206823028</v>
+        <v>0.8656766109386961</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9199698417058297</v>
+        <v>0.9196170369182981</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>960</v>
@@ -3941,19 +3941,19 @@
         <v>1024617</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1003374</v>
+        <v>1003461</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1044007</v>
+        <v>1044773</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9066617402721558</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8878644919254006</v>
+        <v>0.8879418420310634</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9238201306857673</v>
+        <v>0.9244979602642206</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>89327</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72958</v>
+        <v>71441</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>109244</v>
+        <v>108566</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1156138546254814</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09442703684974803</v>
+        <v>0.09246382422064317</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1413915505078819</v>
+        <v>0.1405134605581511</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>93</v>
@@ -4066,19 +4066,19 @@
         <v>105011</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>85672</v>
+        <v>86770</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>126085</v>
+        <v>126731</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1197605288187055</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0977057602754946</v>
+        <v>0.0989570594953685</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1437949438734688</v>
+        <v>0.1445314745393468</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>183</v>
@@ -4087,19 +4087,19 @@
         <v>194338</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>168606</v>
+        <v>168306</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>222651</v>
+        <v>220343</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1178181759505952</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1022178015732195</v>
+        <v>0.1020360779962669</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1349828253038057</v>
+        <v>0.1335835216416226</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>683308</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>663391</v>
+        <v>664069</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>699677</v>
+        <v>701194</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8843861453745187</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8586084494921181</v>
+        <v>0.8594865394418489</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.905572963150252</v>
+        <v>0.9075361757793569</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>720</v>
@@ -4137,19 +4137,19 @@
         <v>771830</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>750756</v>
+        <v>750110</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>791169</v>
+        <v>790071</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8802394711812945</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8562050561265311</v>
+        <v>0.8554685254606532</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9022942397245052</v>
+        <v>0.9010429405046314</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1398</v>
@@ -4158,19 +4158,19 @@
         <v>1455138</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1426825</v>
+        <v>1429133</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1480870</v>
+        <v>1481170</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8821818240494048</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8650171746961943</v>
+        <v>0.8664164783583774</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8977821984267804</v>
+        <v>0.8979639220037331</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>283725</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>254055</v>
+        <v>253910</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>319834</v>
+        <v>314709</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1064900429551888</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09535404479675966</v>
+        <v>0.09529982325498546</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1200427092386084</v>
+        <v>0.118119105360795</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>298</v>
@@ -4283,19 +4283,19 @@
         <v>333590</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>297576</v>
+        <v>299802</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>370520</v>
+        <v>369709</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.116342249229173</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1037821014008723</v>
+        <v>0.1045585965468454</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.129221918957221</v>
+        <v>0.1289392457201006</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>571</v>
@@ -4304,19 +4304,19 @@
         <v>617315</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>570149</v>
+        <v>571408</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>669840</v>
+        <v>668144</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1115969076466571</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1030703796187409</v>
+        <v>0.1032979491098011</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.121092266250732</v>
+        <v>0.1207856635563722</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2380608</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2344499</v>
+        <v>2349624</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2410278</v>
+        <v>2410423</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8935099570448112</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8799572907613916</v>
+        <v>0.881880894639205</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9046459552032403</v>
+        <v>0.9047001767450146</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2429</v>
@@ -4354,19 +4354,19 @@
         <v>2533725</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2496795</v>
+        <v>2497606</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2569739</v>
+        <v>2567513</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.883657750770827</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8707780810427789</v>
+        <v>0.8710607542798994</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8962178985991277</v>
+        <v>0.8954414034531546</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4686</v>
@@ -4375,19 +4375,19 @@
         <v>4914333</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4861808</v>
+        <v>4863504</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4961499</v>
+        <v>4960240</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8884030923533429</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8789077337492672</v>
+        <v>0.8792143364436277</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.896929620381259</v>
+        <v>0.8967020508901989</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>66989</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54298</v>
+        <v>54117</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>81798</v>
+        <v>82194</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1015704382634232</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08232797296445321</v>
+        <v>0.08205425515189337</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1240251736232889</v>
+        <v>0.124625645589867</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>216</v>
@@ -4740,19 +4740,19 @@
         <v>96796</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>84449</v>
+        <v>84926</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>110665</v>
+        <v>110698</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1370756109618858</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1195905753748277</v>
+        <v>0.1202667944095635</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1567162441959732</v>
+        <v>0.1567629686562819</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>315</v>
@@ -4761,19 +4761,19 @@
         <v>163785</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>145015</v>
+        <v>145383</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>182047</v>
+        <v>183505</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1199290098522287</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1061852291626179</v>
+        <v>0.1064548237265612</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.133301028975862</v>
+        <v>0.134368726154299</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>592542</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>577733</v>
+        <v>577337</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>605233</v>
+        <v>605414</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8984295617365768</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8759748263767111</v>
+        <v>0.8753743544101332</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9176720270355465</v>
+        <v>0.9179457448481065</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>981</v>
@@ -4811,19 +4811,19 @@
         <v>609353</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>595484</v>
+        <v>595451</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>621700</v>
+        <v>621223</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8629243890381142</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8432837558040269</v>
+        <v>0.8432370313437181</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8804094246251725</v>
+        <v>0.8797332055904366</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1578</v>
@@ -4832,19 +4832,19 @@
         <v>1201895</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1183633</v>
+        <v>1182175</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1220665</v>
+        <v>1220297</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8800709901477715</v>
+        <v>0.8800709901477712</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8666989710241381</v>
+        <v>0.8656312738457014</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8938147708373823</v>
+        <v>0.8935451762734391</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>94257</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>77563</v>
+        <v>77270</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>113514</v>
+        <v>113664</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.09275583700791257</v>
+        <v>0.09275583700791258</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.076327745514425</v>
+        <v>0.07604001165423183</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1117070607388336</v>
+        <v>0.111854255917407</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>170</v>
@@ -4957,19 +4957,19 @@
         <v>95204</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>80254</v>
+        <v>80744</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>109193</v>
+        <v>110035</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.09086238575603234</v>
+        <v>0.09086238575603232</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07659390255916179</v>
+        <v>0.07706184323831332</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1042135749792472</v>
+        <v>0.1050169094678421</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>283</v>
@@ -4978,19 +4978,19 @@
         <v>189461</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>166223</v>
+        <v>166971</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>212598</v>
+        <v>213381</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0917946148359898</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08053598674815114</v>
+        <v>0.08089803937516739</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.103004564599123</v>
+        <v>0.1033841752249794</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>921923</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>902666</v>
+        <v>902516</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>938617</v>
+        <v>938910</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9072441629920873</v>
+        <v>0.9072441629920875</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8882929392611664</v>
+        <v>0.8881457440825931</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.923672254485575</v>
+        <v>0.9239599883457681</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1316</v>
@@ -5028,19 +5028,19 @@
         <v>952580</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>938591</v>
+        <v>937749</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>967530</v>
+        <v>967040</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9091376142439677</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8957864250207526</v>
+        <v>0.8949830905321579</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9234060974408381</v>
+        <v>0.9229381567616866</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2139</v>
@@ -5049,19 +5049,19 @@
         <v>1874503</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1851366</v>
+        <v>1850583</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1897741</v>
+        <v>1896993</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9082053851640103</v>
+        <v>0.9082053851640102</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.896995435400877</v>
+        <v>0.8966158247750207</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9194640132518488</v>
+        <v>0.9191019606248327</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>80649</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>65492</v>
+        <v>64197</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>99570</v>
+        <v>100476</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.104196631032001</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08461456993303691</v>
+        <v>0.0829415084327299</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1286426171785435</v>
+        <v>0.1298125017092632</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>148</v>
@@ -5174,19 +5174,19 @@
         <v>98171</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>82777</v>
+        <v>83607</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>115174</v>
+        <v>116219</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1234324032250457</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1040770516337918</v>
+        <v>0.1051203036830582</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1448098627546472</v>
+        <v>0.1461237143931042</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>229</v>
@@ -5195,19 +5195,19 @@
         <v>178820</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>156072</v>
+        <v>157147</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>202531</v>
+        <v>208313</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1139452869307835</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09944977585677671</v>
+        <v>0.10013520302029</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1290536697934688</v>
+        <v>0.1327380193716195</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>693359</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>674438</v>
+        <v>673532</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>708516</v>
+        <v>709811</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8958033689679989</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8713573828214565</v>
+        <v>0.8701874982907373</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.915385430066963</v>
+        <v>0.9170584915672702</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>876</v>
@@ -5245,19 +5245,19 @@
         <v>697174</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>680171</v>
+        <v>679126</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>712568</v>
+        <v>711738</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8765675967749543</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8551901372453529</v>
+        <v>0.8538762856068955</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8959229483662083</v>
+        <v>0.8948796963169416</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1450</v>
@@ -5266,19 +5266,19 @@
         <v>1390533</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1366822</v>
+        <v>1361040</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1413281</v>
+        <v>1412206</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8860547130692166</v>
+        <v>0.8860547130692163</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8709463302065311</v>
+        <v>0.8672619806283801</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9005502241432233</v>
+        <v>0.8998647969797099</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>110445</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>93257</v>
+        <v>94137</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>132034</v>
+        <v>133583</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1165076793148171</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09837694098507827</v>
+        <v>0.09930456994581413</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1392823702722223</v>
+        <v>0.1409167988168697</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>238</v>
@@ -5391,19 +5391,19 @@
         <v>147361</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>130178</v>
+        <v>128924</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>166236</v>
+        <v>166971</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1369312939762816</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1209641005857541</v>
+        <v>0.1197991709396594</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1544703364023758</v>
+        <v>0.1551526295772731</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>379</v>
@@ -5412,19 +5412,19 @@
         <v>257806</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>233414</v>
+        <v>233497</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>286118</v>
+        <v>285862</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1273663149962383</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1153156624511141</v>
+        <v>0.1153567034268494</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1413538545004421</v>
+        <v>0.1412272532382646</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>837514</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>815925</v>
+        <v>814376</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>854702</v>
+        <v>853822</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8834923206851827</v>
+        <v>0.8834923206851828</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8607176297277778</v>
+        <v>0.8590832011831303</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9016230590149218</v>
+        <v>0.9006954300541861</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1272</v>
@@ -5462,19 +5462,19 @@
         <v>928809</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>909934</v>
+        <v>909199</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>945992</v>
+        <v>947246</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8630687060237182</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8455296635976242</v>
+        <v>0.8448473704227267</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8790358994142458</v>
+        <v>0.8802008290603408</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2097</v>
@@ -5483,19 +5483,19 @@
         <v>1766323</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1738011</v>
+        <v>1738267</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1790715</v>
+        <v>1790632</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8726336850037618</v>
+        <v>0.8726336850037616</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8586461454995579</v>
+        <v>0.8587727467617357</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8846843375488859</v>
+        <v>0.8846432965731511</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>352339</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>317220</v>
+        <v>317812</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>386752</v>
+        <v>386459</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1036999417719546</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09336382137377135</v>
+        <v>0.09353810171466535</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1138282934511194</v>
+        <v>0.1137421539346241</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>772</v>
@@ -5608,19 +5608,19 @@
         <v>437533</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>409102</v>
+        <v>405596</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>470460</v>
+        <v>470982</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1206837478788075</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1128419101089293</v>
+        <v>0.1118747752307071</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1297661371702448</v>
+        <v>0.1299101034993521</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1206</v>
@@ -5629,19 +5629,19 @@
         <v>789872</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>745954</v>
+        <v>746160</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>838496</v>
+        <v>840008</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1124672495151152</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.106213935105234</v>
+        <v>0.1062433508840256</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1193907724463658</v>
+        <v>0.1196059855734838</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3045339</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3010926</v>
+        <v>3011219</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3080458</v>
+        <v>3079866</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8963000582280451</v>
+        <v>0.8963000582280455</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8861717065488807</v>
+        <v>0.8862578460653759</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9066361786262287</v>
+        <v>0.9064618982853345</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4445</v>
@@ -5679,19 +5679,19 @@
         <v>3187915</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3154988</v>
+        <v>3154466</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3216346</v>
+        <v>3219852</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8793162521211925</v>
+        <v>0.8793162521211926</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8702338628297552</v>
+        <v>0.8700898965006479</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8871580898910707</v>
+        <v>0.8881252247692928</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7264</v>
@@ -5700,19 +5700,19 @@
         <v>6233253</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6184629</v>
+        <v>6183117</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6277171</v>
+        <v>6276965</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8875327504848849</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.880609227553634</v>
+        <v>0.8803940144265161</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8937860648947658</v>
+        <v>0.8937566491159743</v>
       </c>
     </row>
     <row r="18">
